--- a/cadastro.xlsx
+++ b/cadastro.xlsx
@@ -1,33 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\servidor\Turmas\dev-sis-manha\Pablo Miranda Rodrigues\DESAFIO 4.10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD22E8C-2FDB-49BF-86E5-C9A560BC9BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3555" yWindow="1935" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="13005" yWindow="-30" windowWidth="15915" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>TELEFONE</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ENDEREÇO</t>
+  </si>
+  <si>
+    <t>DATA NASC.</t>
+  </si>
+  <si>
+    <t>RUA 7 NUMERO 20</t>
+  </si>
+  <si>
+    <t>Juan Martin</t>
+  </si>
+  <si>
+    <t>juan.martin.pinto@gestion.com.br</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -42,88 +87,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,189 +417,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="18" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="27.140625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="4.28515625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="16.5703125" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="17.28515625" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="18" customWidth="1" style="2" min="7" max="9"/>
-    <col width="18" customWidth="1" style="2" min="10" max="16384"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="18" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="18" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NOME</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CPF</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TELEFONE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>EMAIL</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ENDEREÇO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DATA NASC.</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PABLO MIRANDA RODRIGUES</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32999031376</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PABLO@GMAIL</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>RUA 7 NUMERO 20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>27/05/2000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SAMMYR FALCI</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>32988765764</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SAMMYR@GMAIL</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>RUA 7 NUMERO 1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>28/06/2004</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TALITA LIDIANE</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>32987764335</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TALITA@GMAIL</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>RUA 4 NUMERO 11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>29/10/1995</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PEDRO LUCAS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>32998761222</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PEDRO@GMAIL</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>RUA 11 NUMERO 15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>24/05/2003</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>76556062260</v>
+      </c>
+      <c r="C2" s="1">
+        <v>98988547698</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4">
+        <v>21646</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup orientation="portrait" paperSize="0"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5755847B-E028-4DF0-97AA-B36F7422EAF0}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait"/>
 </worksheet>
 </file>